--- a/result/table/RQ3-4.xlsx
+++ b/result/table/RQ3-4.xlsx
@@ -46,25 +46,25 @@
     <t>XGMP</t>
   </si>
   <si>
-    <t>0.7274</t>
-  </si>
-  <si>
-    <t>0.7298</t>
-  </si>
-  <si>
-    <t>0.7890</t>
-  </si>
-  <si>
-    <t>0.7182</t>
-  </si>
-  <si>
-    <t>0.7296</t>
-  </si>
-  <si>
-    <t>0.7855</t>
-  </si>
-  <si>
-    <t>0.7912</t>
+    <t>0.7269</t>
+  </si>
+  <si>
+    <t>0.7293</t>
+  </si>
+  <si>
+    <t>0.7886</t>
+  </si>
+  <si>
+    <t>0.7178</t>
+  </si>
+  <si>
+    <t>0.7291</t>
+  </si>
+  <si>
+    <t>0.7851</t>
+  </si>
+  <si>
+    <t>0.7908</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -499,7 +499,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -510,7 +510,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
